--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value76.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value76.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.475769397414992</v>
+        <v>3.782044172286987</v>
       </c>
       <c r="B1">
-        <v>1.671549049365785</v>
+        <v>5.204721450805664</v>
       </c>
       <c r="C1">
-        <v>1.690561291361124</v>
+        <v>6.814132213592529</v>
       </c>
       <c r="D1">
-        <v>2.182821036397881</v>
+        <v>10.66283798217773</v>
       </c>
       <c r="E1">
-        <v>2.768917937734802</v>
+        <v>5.478264331817627</v>
       </c>
     </row>
   </sheetData>
